--- a/cats.xlsx
+++ b/cats.xlsx
@@ -1,25 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19099\Desktop\CC\sql\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E74759E-604F-4735-8BBA-67208AFE628E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3120" yWindow="645" windowWidth="15900" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>catid</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Alessandro Arroyo</t>
+  </si>
+  <si>
+    <t>Eliot Morin</t>
+  </si>
+  <si>
+    <t>Bushra Rahman</t>
+  </si>
+  <si>
+    <t>Cillian Rodriguez</t>
+  </si>
+  <si>
+    <t>Coby Stephens</t>
+  </si>
+  <si>
+    <t>Mercy English</t>
+  </si>
+  <si>
+    <t>Harriet Lynn</t>
+  </si>
+  <si>
+    <t>Hettie Alvarez</t>
+  </si>
+  <si>
+    <t>Ebony Andrews</t>
+  </si>
+  <si>
+    <t>Eryk Mclaughlin</t>
+  </si>
+  <si>
+    <t>Nawal English</t>
+  </si>
+  <si>
+    <t>Jeanette Reeves</t>
+  </si>
+  <si>
+    <t>Fardeen Clay</t>
+  </si>
+  <si>
+    <t>Kaya Morley</t>
+  </si>
+  <si>
+    <t>Zavier Marsden</t>
+  </si>
+  <si>
+    <t>Daniel Stephenson</t>
+  </si>
+  <si>
+    <t>Brenna Wagner</t>
+  </si>
+  <si>
+    <t>Ollie Mills</t>
+  </si>
+  <si>
+    <t>Romilly Fletcher</t>
+  </si>
+  <si>
+    <t>Janice Le</t>
+  </si>
+  <si>
+    <t>Sid Skinner</t>
+  </si>
+  <si>
+    <t>Kaeden Hollis</t>
+  </si>
+  <si>
+    <t>Annette Pate</t>
+  </si>
+  <si>
+    <t>Steven Jones</t>
+  </si>
+  <si>
+    <t>Eve Roth</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +440,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">INT(RAND() * 15 + 1)</f>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f ca="1">INT(RAND() * 10 + 1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B26" ca="1" si="0">INT(RAND() * 15 + 1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" ca="1" si="1">INT(RAND() * 10 + 1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>